--- a/medicine/Handicap/Judy_Singer/Judy_Singer.xlsx
+++ b/medicine/Handicap/Judy_Singer/Judy_Singer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Judy Singer est une femme australienne, psychologue et sociologue. Elle a longtemps été décrite comme la première théoricienne du concept de neurodiversité à partir de l'observation de sa fille et de l'arbre généalogique de sa famille[1] ; mais il s'avère que ce concept a été en fait développé collectivement[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Judy Singer est une femme australienne, psychologue et sociologue. Elle a longtemps été décrite comme la première théoricienne du concept de neurodiversité à partir de l'observation de sa fille et de l'arbre généalogique de sa famille ; mais il s'avère que ce concept a été en fait développé collectivement.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mère de Judy Singer était juive hongroise, et s'est réfugiée en Australie après avoir survécu à la 2e guerre mondiale[3]. Judy a constaté que sa fille avait le syndrome d'Asperger, et qu'elle-même et sa mère avaient aussi un certain degré d'autisme[4].
-Judy Singer est généralement citée comme l'initiatrice du concept de neurodiversité, en 1998[5],[6],[7]. En 1999, elle crée son site web de défense de la neurodiversité, et « analyse le développement de l'identité autiste comme le défi à relever pour le mouvement des personnes présentant un handicap »[8]. Cette même année, elle publie un article intitulé Why can’t you be normal for once in your life?[6].
-Judy Singer a été consultante en informatique[9]. Pendant six ans, elle a représenté les intérêts de locataires de logements sociaux d'Inner West[9]. Elle a aussi siégé au sein d'un comité consultatif de locataires de logements sociaux. Elle a créé Diary of a Desperate Houso[10], un blog satirique qui a été archivé à perpétuité par la Bibliothèque nationale d'Australie[9]. Elle est un des directeurs de Shelter NSW[9]. En 1999, elle crée l'ASpar[11]. En 2004, elle est un des cofondateurs de l'ASteen Social Club[12], un groupe social pour adolescents et jeunes adultes diagnostiqués avec syndrome d'Asperger ou autisme à haut niveau de fonctionnement ; en 2013, plus de cent familles de la région de Sydney en sont membres[9]. Lors de l'écriture de sa thèse, elle a inventé la notion de neurodiversité qui est devenue la base du mouvement pour les droits des personnes autistes[9]. Dans son numéro spécial « 20e anniversaire » d'avril 2013[13], le magazine américain Wired cite la neurodiversité comme une des meilleures idées des deux dernières décennies[9]. Elle a publié des articles sur l'auto-support des locataires et des autistes dans New Matilda (en), The Sydney Morning Herald (SMH) et NGO[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mère de Judy Singer était juive hongroise, et s'est réfugiée en Australie après avoir survécu à la 2e guerre mondiale. Judy a constaté que sa fille avait le syndrome d'Asperger, et qu'elle-même et sa mère avaient aussi un certain degré d'autisme.
+Judy Singer est généralement citée comme l'initiatrice du concept de neurodiversité, en 1998. En 1999, elle crée son site web de défense de la neurodiversité, et « analyse le développement de l'identité autiste comme le défi à relever pour le mouvement des personnes présentant un handicap ». Cette même année, elle publie un article intitulé Why can’t you be normal for once in your life?.
+Judy Singer a été consultante en informatique. Pendant six ans, elle a représenté les intérêts de locataires de logements sociaux d'Inner West. Elle a aussi siégé au sein d'un comité consultatif de locataires de logements sociaux. Elle a créé Diary of a Desperate Houso, un blog satirique qui a été archivé à perpétuité par la Bibliothèque nationale d'Australie. Elle est un des directeurs de Shelter NSW. En 1999, elle crée l'ASpar. En 2004, elle est un des cofondateurs de l'ASteen Social Club, un groupe social pour adolescents et jeunes adultes diagnostiqués avec syndrome d'Asperger ou autisme à haut niveau de fonctionnement ; en 2013, plus de cent familles de la région de Sydney en sont membres. Lors de l'écriture de sa thèse, elle a inventé la notion de neurodiversité qui est devenue la base du mouvement pour les droits des personnes autistes. Dans son numéro spécial « 20e anniversaire » d'avril 2013, le magazine américain Wired cite la neurodiversité comme une des meilleures idées des deux dernières décennies. Elle a publié des articles sur l'auto-support des locataires et des autistes dans New Matilda (en), The Sydney Morning Herald (SMH) et NGO.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) NeuroDiversity: The Birth of an Idea, Amazon Australia Services, Inc., 3 juillet 2016, 82 p. (ASIN B01HY0QTEE)</t>
         </is>
